--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W15_H100_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W15_H100_B16.xlsx
@@ -518,7 +518,7 @@
         <v>0.7123287671232876</v>
       </c>
       <c r="G2" t="n">
-        <v>0.513677811550152</v>
+        <v>0.4772036474164134</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1983390767253188</v>
+        <v>0.1386009309025918</v>
       </c>
       <c r="J2" t="n">
-        <v>2655.094505208046</v>
+        <v>1826.445819587739</v>
       </c>
       <c r="K2" t="n">
-        <v>9496402.015684672</v>
+        <v>4254873.835679627</v>
       </c>
       <c r="L2" t="n">
-        <v>3081.623276081077</v>
+        <v>2062.734552888381</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.7855315013463315</v>
+        <v>0.1999905590230507</v>
       </c>
     </row>
   </sheetData>
